--- a/Jogos_do_Dia/2023-01-12_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-12_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.55</v>
+        <v>2.67</v>
       </c>
       <c r="G2" t="n">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="H2" t="n">
-        <v>3.08</v>
+        <v>2.99</v>
       </c>
       <c r="I2" t="n">
         <v>1.11</v>
@@ -695,28 +695,28 @@
         <v>2.76</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="3">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="G3" t="n">
-        <v>4.02</v>
+        <v>4.24</v>
       </c>
       <c r="H3" t="n">
-        <v>6.47</v>
+        <v>6.45</v>
       </c>
       <c r="I3" t="n">
         <v>1.03</v>
@@ -763,10 +763,10 @@
         <v>3.7</v>
       </c>
       <c r="M3" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="N3" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="O3" t="n">
         <v>1.34</v>
@@ -805,28 +805,28 @@
         <v>2.91</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.01</v>
+        <v>3.8</v>
       </c>
       <c r="G4" t="n">
-        <v>3.89</v>
+        <v>3.7</v>
       </c>
       <c r="H4" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="I4" t="n">
         <v>1.04</v>
@@ -873,10 +873,10 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.84</v>
+        <v>1.71</v>
       </c>
       <c r="N4" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>

--- a/Jogos_do_Dia/2023-01-12_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-12_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.67</v>
+        <v>2.79</v>
       </c>
       <c r="G2" t="n">
-        <v>2.69</v>
+        <v>2.8</v>
       </c>
       <c r="H2" t="n">
-        <v>2.99</v>
+        <v>2.75</v>
       </c>
       <c r="I2" t="n">
         <v>1.11</v>
@@ -653,10 +653,10 @@
         <v>2.4</v>
       </c>
       <c r="M2" t="n">
-        <v>2.61</v>
+        <v>2.55</v>
       </c>
       <c r="N2" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="O2" t="n">
         <v>1.56</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="G3" t="n">
-        <v>4.24</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>6.45</v>
+        <v>6.4</v>
       </c>
       <c r="I3" t="n">
         <v>1.03</v>
@@ -763,10 +763,10 @@
         <v>3.7</v>
       </c>
       <c r="M3" t="n">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="N3" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="O3" t="n">
         <v>1.34</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.8</v>
+        <v>3.18</v>
       </c>
       <c r="G4" t="n">
-        <v>3.7</v>
+        <v>3.48</v>
       </c>
       <c r="H4" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="I4" t="n">
         <v>1.04</v>
@@ -873,10 +873,10 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="N4" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
